--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jam2-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jam2-F11r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.83570850000001</v>
+        <v>85.2716025</v>
       </c>
       <c r="H2">
-        <v>187.671417</v>
+        <v>170.543205</v>
       </c>
       <c r="I2">
-        <v>0.5679500693534724</v>
+        <v>0.9297808351379414</v>
       </c>
       <c r="J2">
-        <v>0.4713618706519806</v>
+        <v>0.9048045315944306</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.0030115</v>
+        <v>33.8141135</v>
       </c>
       <c r="N2">
-        <v>84.006023</v>
+        <v>67.62822700000001</v>
       </c>
       <c r="O2">
-        <v>0.5082121969030551</v>
+        <v>0.8395820055673167</v>
       </c>
       <c r="P2">
-        <v>0.4088471200600853</v>
+        <v>0.7840733132753086</v>
       </c>
       <c r="Q2">
-        <v>3941.382343236148</v>
+        <v>2883.383645261884</v>
       </c>
       <c r="R2">
-        <v>15765.52937294459</v>
+        <v>11533.53458104754</v>
       </c>
       <c r="S2">
-        <v>0.2886391524773707</v>
+        <v>0.7806272583031675</v>
       </c>
       <c r="T2">
-        <v>0.1927149433221967</v>
+        <v>0.7094330869537588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.83570850000001</v>
+        <v>85.2716025</v>
       </c>
       <c r="H3">
-        <v>187.671417</v>
+        <v>170.543205</v>
       </c>
       <c r="I3">
-        <v>0.5679500693534724</v>
+        <v>0.9297808351379414</v>
       </c>
       <c r="J3">
-        <v>0.4713618706519806</v>
+        <v>0.9048045315944306</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.259708</v>
       </c>
       <c r="O3">
-        <v>0.001047438969412139</v>
+        <v>0.002149459115662623</v>
       </c>
       <c r="P3">
-        <v>0.001263967321207012</v>
+        <v>0.003011022483911989</v>
       </c>
       <c r="Q3">
-        <v>8.123294727706</v>
+        <v>7.381905780689999</v>
       </c>
       <c r="R3">
-        <v>48.73976836623601</v>
+        <v>44.29143468414</v>
       </c>
       <c r="S3">
-        <v>0.0005948930353211538</v>
+        <v>0.001998525891655654</v>
       </c>
       <c r="T3">
-        <v>0.0005957860009671099</v>
+        <v>0.002724386788176286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.83570850000001</v>
+        <v>85.2716025</v>
       </c>
       <c r="H4">
-        <v>187.671417</v>
+        <v>170.543205</v>
       </c>
       <c r="I4">
-        <v>0.5679500693534724</v>
+        <v>0.9297808351379414</v>
       </c>
       <c r="J4">
-        <v>0.4713618706519806</v>
+        <v>0.9048045315944306</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.171693666666666</v>
+        <v>2.533859666666667</v>
       </c>
       <c r="N4">
-        <v>15.515081</v>
+        <v>7.601579</v>
       </c>
       <c r="O4">
-        <v>0.06257450849795097</v>
+        <v>0.06291405453424448</v>
       </c>
       <c r="P4">
-        <v>0.07551001651808879</v>
+        <v>0.088131768302221</v>
       </c>
       <c r="Q4">
-        <v>485.2895393566295</v>
+        <v>216.0662742867825</v>
       </c>
       <c r="R4">
-        <v>2911.737236139777</v>
+        <v>1296.397645720695</v>
       </c>
       <c r="S4">
-        <v>0.0355391964411707</v>
+        <v>0.05849628216676382</v>
       </c>
       <c r="T4">
-        <v>0.03559254263892829</v>
+        <v>0.07974202333727996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.83570850000001</v>
+        <v>85.2716025</v>
       </c>
       <c r="H5">
-        <v>187.671417</v>
+        <v>170.543205</v>
       </c>
       <c r="I5">
-        <v>0.5679500693534724</v>
+        <v>0.9297808351379414</v>
       </c>
       <c r="J5">
-        <v>0.4713618706519806</v>
+        <v>0.9048045315944306</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4721975</v>
+        <v>0.7582734999999999</v>
       </c>
       <c r="N5">
-        <v>0.944395</v>
+        <v>1.516547</v>
       </c>
       <c r="O5">
-        <v>0.005713317218864898</v>
+        <v>0.01882742795840407</v>
       </c>
       <c r="P5">
-        <v>0.004596255865476982</v>
+        <v>0.0175826586586061</v>
       </c>
       <c r="Q5">
-        <v>44.30898696442875</v>
+        <v>64.65919647828375</v>
       </c>
       <c r="R5">
-        <v>177.235947857715</v>
+        <v>258.636785913135</v>
       </c>
       <c r="S5">
-        <v>0.003244878910692707</v>
+        <v>0.01750538169066437</v>
       </c>
       <c r="T5">
-        <v>0.002166499762746368</v>
+        <v>0.01590886923178486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>93.83570850000001</v>
+        <v>85.2716025</v>
       </c>
       <c r="H6">
-        <v>187.671417</v>
+        <v>170.543205</v>
       </c>
       <c r="I6">
-        <v>0.5679500693534724</v>
+        <v>0.9297808351379414</v>
       </c>
       <c r="J6">
-        <v>0.4713618706519806</v>
+        <v>0.9048045315944306</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.43944966666666</v>
+        <v>0.9893793333333333</v>
       </c>
       <c r="N6">
-        <v>79.318349</v>
+        <v>2.968138</v>
       </c>
       <c r="O6">
-        <v>0.3199020813068228</v>
+        <v>0.02456563248203607</v>
       </c>
       <c r="P6">
-        <v>0.3860327795373761</v>
+        <v>0.03441222547381506</v>
       </c>
       <c r="Q6">
-        <v>2480.964491821755</v>
+        <v>84.365961233715</v>
       </c>
       <c r="R6">
-        <v>14885.78695093053</v>
+        <v>506.19576740229</v>
       </c>
       <c r="S6">
-        <v>0.1816884092645302</v>
+        <v>0.02284065428483924</v>
       </c>
       <c r="T6">
-        <v>0.1819611330957212</v>
+        <v>0.03113633755095717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.83570850000001</v>
+        <v>85.2716025</v>
       </c>
       <c r="H7">
-        <v>187.671417</v>
+        <v>170.543205</v>
       </c>
       <c r="I7">
-        <v>0.5679500693534724</v>
+        <v>0.9297808351379414</v>
       </c>
       <c r="J7">
-        <v>0.4713618706519806</v>
+        <v>0.9048045315944306</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.475648666666666</v>
+        <v>2.092743</v>
       </c>
       <c r="N7">
-        <v>25.426946</v>
+        <v>6.278229</v>
       </c>
       <c r="O7">
-        <v>0.102550457103894</v>
+        <v>0.05196142034233613</v>
       </c>
       <c r="P7">
-        <v>0.1237498606977658</v>
+        <v>0.0727890118061372</v>
       </c>
       <c r="Q7">
-        <v>795.318497633747</v>
+        <v>178.4515492306575</v>
       </c>
       <c r="R7">
-        <v>4771.910985802483</v>
+        <v>1070.709295383945</v>
       </c>
       <c r="S7">
-        <v>0.05824353922438688</v>
+        <v>0.0483127328008509</v>
       </c>
       <c r="T7">
-        <v>0.05833096583142088</v>
+        <v>0.06585982773247345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.615182</v>
       </c>
       <c r="I8">
-        <v>0.02141648579016069</v>
+        <v>0.03858178844905701</v>
       </c>
       <c r="J8">
-        <v>0.02666144970190763</v>
+        <v>0.05631807363594247</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.0030115</v>
+        <v>33.8141135</v>
       </c>
       <c r="N8">
-        <v>84.006023</v>
+        <v>67.62822700000001</v>
       </c>
       <c r="O8">
-        <v>0.5082121969030551</v>
+        <v>0.8395820055673167</v>
       </c>
       <c r="P8">
-        <v>0.4088471200600853</v>
+        <v>0.7840733132753086</v>
       </c>
       <c r="Q8">
-        <v>148.623203873531</v>
+        <v>119.647656323719</v>
       </c>
       <c r="R8">
-        <v>891.7392232411861</v>
+        <v>717.8859379423142</v>
       </c>
       <c r="S8">
-        <v>0.01088411929336062</v>
+        <v>0.03239257532443322</v>
       </c>
       <c r="T8">
-        <v>0.01090045692725175</v>
+        <v>0.04415749859301622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.615182</v>
       </c>
       <c r="I9">
-        <v>0.02141648579016069</v>
+        <v>0.03858178844905701</v>
       </c>
       <c r="J9">
-        <v>0.02666144970190763</v>
+        <v>0.05631807363594247</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.259708</v>
       </c>
       <c r="O9">
-        <v>0.001047438969412139</v>
+        <v>0.002149459115662623</v>
       </c>
       <c r="P9">
-        <v>0.001263967321207012</v>
+        <v>0.003011022483911989</v>
       </c>
       <c r="Q9">
         <v>0.3063164096506667</v>
@@ -1013,10 +1013,10 @@
         <v>2.756847686856</v>
       </c>
       <c r="S9">
-        <v>2.243246180447562E-05</v>
+        <v>8.292997688039247E-05</v>
       </c>
       <c r="T9">
-        <v>3.369920115921567E-05</v>
+        <v>0.0001695749859684338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.615182</v>
       </c>
       <c r="I10">
-        <v>0.02141648579016069</v>
+        <v>0.03858178844905701</v>
       </c>
       <c r="J10">
-        <v>0.02666144970190763</v>
+        <v>0.05631807363594247</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.171693666666666</v>
+        <v>2.533859666666667</v>
       </c>
       <c r="N10">
-        <v>15.515081</v>
+        <v>7.601579</v>
       </c>
       <c r="O10">
-        <v>0.06257450849795097</v>
+        <v>0.06291405453424448</v>
       </c>
       <c r="P10">
-        <v>0.07551001651808879</v>
+        <v>0.088131768302221</v>
       </c>
       <c r="Q10">
-        <v>18.29948983997133</v>
+        <v>8.965793841375335</v>
       </c>
       <c r="R10">
-        <v>164.695408559742</v>
+        <v>80.69214457237801</v>
       </c>
       <c r="S10">
-        <v>0.001340126072072656</v>
+        <v>0.002427336742512657</v>
       </c>
       <c r="T10">
-        <v>0.002013206507387239</v>
+        <v>0.004963411416910302</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.615182</v>
       </c>
       <c r="I11">
-        <v>0.02141648579016069</v>
+        <v>0.03858178844905701</v>
       </c>
       <c r="J11">
-        <v>0.02666144970190763</v>
+        <v>0.05631807363594247</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4721975</v>
+        <v>0.7582734999999999</v>
       </c>
       <c r="N11">
-        <v>0.944395</v>
+        <v>1.516547</v>
       </c>
       <c r="O11">
-        <v>0.005713317218864898</v>
+        <v>0.01882742795840407</v>
       </c>
       <c r="P11">
-        <v>0.004596255865476982</v>
+        <v>0.0175826586586061</v>
       </c>
       <c r="Q11">
-        <v>1.670820800815</v>
+        <v>2.683070402759</v>
       </c>
       <c r="R11">
-        <v>10.02492480489</v>
+        <v>16.098422416554</v>
       </c>
       <c r="S11">
-        <v>0.0001223591770325005</v>
+        <v>0.0007263958425310073</v>
       </c>
       <c r="T11">
-        <v>0.0001225428445745125</v>
+        <v>0.0009902214650510199</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.615182</v>
       </c>
       <c r="I12">
-        <v>0.02141648579016069</v>
+        <v>0.03858178844905701</v>
       </c>
       <c r="J12">
-        <v>0.02666144970190763</v>
+        <v>0.05631807363594247</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.43944966666666</v>
+        <v>0.9893793333333333</v>
       </c>
       <c r="N12">
-        <v>79.318349</v>
+        <v>2.968138</v>
       </c>
       <c r="O12">
-        <v>0.3199020813068228</v>
+        <v>0.02456563248203607</v>
       </c>
       <c r="P12">
-        <v>0.3860327795373761</v>
+        <v>0.03441222547381506</v>
       </c>
       <c r="Q12">
-        <v>93.55319006383533</v>
+        <v>3.500813896790667</v>
       </c>
       <c r="R12">
-        <v>841.978710574518</v>
+        <v>31.507325071116</v>
       </c>
       <c r="S12">
-        <v>0.006851178378550399</v>
+        <v>0.0009477860355391991</v>
       </c>
       <c r="T12">
-        <v>0.01029219353492335</v>
+        <v>0.001938030248210972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.615182</v>
       </c>
       <c r="I13">
-        <v>0.02141648579016069</v>
+        <v>0.03858178844905701</v>
       </c>
       <c r="J13">
-        <v>0.02666144970190763</v>
+        <v>0.05631807363594247</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.475648666666666</v>
+        <v>2.092743</v>
       </c>
       <c r="N13">
-        <v>25.426946</v>
+        <v>6.278229</v>
       </c>
       <c r="O13">
-        <v>0.102550457103894</v>
+        <v>0.05196142034233613</v>
       </c>
       <c r="P13">
-        <v>0.1237498606977658</v>
+        <v>0.0727890118061372</v>
       </c>
       <c r="Q13">
-        <v>29.99018438824134</v>
+        <v>7.404949274742001</v>
       </c>
       <c r="R13">
-        <v>269.9116594941721</v>
+        <v>66.644543472678</v>
       </c>
       <c r="S13">
-        <v>0.002196270407340029</v>
+        <v>0.00200476452716054</v>
       </c>
       <c r="T13">
-        <v>0.003299350686611557</v>
+        <v>0.00409933692678552</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.338692</v>
+        <v>0.2280796666666667</v>
       </c>
       <c r="H14">
-        <v>1.016076</v>
+        <v>0.684239</v>
       </c>
       <c r="I14">
-        <v>0.002049967416076645</v>
+        <v>0.002486925268600606</v>
       </c>
       <c r="J14">
-        <v>0.002552010805591039</v>
+        <v>0.003630180093622854</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.0030115</v>
+        <v>33.8141135</v>
       </c>
       <c r="N14">
-        <v>84.006023</v>
+        <v>67.62822700000001</v>
       </c>
       <c r="O14">
-        <v>0.5082121969030551</v>
+        <v>0.8395820055673167</v>
       </c>
       <c r="P14">
-        <v>0.4088471200600853</v>
+        <v>0.7840733132753086</v>
       </c>
       <c r="Q14">
-        <v>14.226083970958</v>
+        <v>7.712311735708835</v>
       </c>
       <c r="R14">
-        <v>85.35650382574799</v>
+        <v>46.27387041425301</v>
       </c>
       <c r="S14">
-        <v>0.001041818444103991</v>
+        <v>0.002087977704707735</v>
       </c>
       <c r="T14">
-        <v>0.001043382268228114</v>
+        <v>0.002846327333792942</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.338692</v>
+        <v>0.2280796666666667</v>
       </c>
       <c r="H15">
-        <v>1.016076</v>
+        <v>0.684239</v>
       </c>
       <c r="I15">
-        <v>0.002049967416076645</v>
+        <v>0.002486925268600606</v>
       </c>
       <c r="J15">
-        <v>0.002552010805591039</v>
+        <v>0.003630180093622854</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.259708</v>
       </c>
       <c r="O15">
-        <v>0.001047438969412139</v>
+        <v>0.002149459115662623</v>
       </c>
       <c r="P15">
-        <v>0.001263967321207012</v>
+        <v>0.003011022483911989</v>
       </c>
       <c r="Q15">
-        <v>0.02932034064533333</v>
+        <v>0.01974470469022222</v>
       </c>
       <c r="R15">
-        <v>0.263883065808</v>
+        <v>0.177702342212</v>
       </c>
       <c r="S15">
-        <v>2.147215757623785E-06</v>
+        <v>5.345544188565289E-06</v>
       </c>
       <c r="T15">
-        <v>3.225658261634254E-06</v>
+        <v>1.093055388254814E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.338692</v>
+        <v>0.2280796666666667</v>
       </c>
       <c r="H16">
-        <v>1.016076</v>
+        <v>0.684239</v>
       </c>
       <c r="I16">
-        <v>0.002049967416076645</v>
+        <v>0.002486925268600606</v>
       </c>
       <c r="J16">
-        <v>0.002552010805591039</v>
+        <v>0.003630180093622854</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.171693666666666</v>
+        <v>2.533859666666667</v>
       </c>
       <c r="N16">
-        <v>15.515081</v>
+        <v>7.601579</v>
       </c>
       <c r="O16">
-        <v>0.06257450849795097</v>
+        <v>0.06291405453424448</v>
       </c>
       <c r="P16">
-        <v>0.07551001651808879</v>
+        <v>0.088131768302221</v>
       </c>
       <c r="Q16">
-        <v>1.751611271350666</v>
+        <v>0.5779218681534445</v>
       </c>
       <c r="R16">
-        <v>15.764501442156</v>
+        <v>5.201296813381</v>
       </c>
       <c r="S16">
-        <v>0.0001282757034978106</v>
+        <v>0.0001564625519713291</v>
       </c>
       <c r="T16">
-        <v>0.0001927023780845204</v>
+        <v>0.0003199341909065043</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.338692</v>
+        <v>0.2280796666666667</v>
       </c>
       <c r="H17">
-        <v>1.016076</v>
+        <v>0.684239</v>
       </c>
       <c r="I17">
-        <v>0.002049967416076645</v>
+        <v>0.002486925268600606</v>
       </c>
       <c r="J17">
-        <v>0.002552010805591039</v>
+        <v>0.003630180093622854</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4721975</v>
+        <v>0.7582734999999999</v>
       </c>
       <c r="N17">
-        <v>0.944395</v>
+        <v>1.516547</v>
       </c>
       <c r="O17">
-        <v>0.005713317218864898</v>
+        <v>0.01882742795840407</v>
       </c>
       <c r="P17">
-        <v>0.004596255865476982</v>
+        <v>0.0175826586586061</v>
       </c>
       <c r="Q17">
-        <v>0.15992951567</v>
+        <v>0.1729467671221667</v>
       </c>
       <c r="R17">
-        <v>0.9595770940199999</v>
+        <v>1.037680602733</v>
       </c>
       <c r="S17">
-        <v>1.171211413638268E-05</v>
+        <v>4.682240633251261E-05</v>
       </c>
       <c r="T17">
-        <v>1.172969463395845E-05</v>
+        <v>6.38282174554374E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.338692</v>
+        <v>0.2280796666666667</v>
       </c>
       <c r="H18">
-        <v>1.016076</v>
+        <v>0.684239</v>
       </c>
       <c r="I18">
-        <v>0.002049967416076645</v>
+        <v>0.002486925268600606</v>
       </c>
       <c r="J18">
-        <v>0.002552010805591039</v>
+        <v>0.003630180093622854</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.43944966666666</v>
+        <v>0.9893793333333333</v>
       </c>
       <c r="N18">
-        <v>79.318349</v>
+        <v>2.968138</v>
       </c>
       <c r="O18">
-        <v>0.3199020813068228</v>
+        <v>0.02456563248203607</v>
       </c>
       <c r="P18">
-        <v>0.3860327795373761</v>
+        <v>0.03441222547381506</v>
       </c>
       <c r="Q18">
-        <v>8.954830086502666</v>
+        <v>0.2256573085535556</v>
       </c>
       <c r="R18">
-        <v>80.59347077852399</v>
+        <v>2.030915776982</v>
       </c>
       <c r="S18">
-        <v>0.0006557888430140883</v>
+        <v>6.109289215873135E-05</v>
       </c>
       <c r="T18">
-        <v>0.000985159824691727</v>
+        <v>0.0001249225758923047</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.338692</v>
+        <v>0.2280796666666667</v>
       </c>
       <c r="H19">
-        <v>1.016076</v>
+        <v>0.684239</v>
       </c>
       <c r="I19">
-        <v>0.002049967416076645</v>
+        <v>0.002486925268600606</v>
       </c>
       <c r="J19">
-        <v>0.002552010805591039</v>
+        <v>0.003630180093622854</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.475648666666666</v>
+        <v>2.092743</v>
       </c>
       <c r="N19">
-        <v>25.426946</v>
+        <v>6.278229</v>
       </c>
       <c r="O19">
-        <v>0.102550457103894</v>
+        <v>0.05196142034233613</v>
       </c>
       <c r="P19">
-        <v>0.1237498606977658</v>
+        <v>0.0727890118061372</v>
       </c>
       <c r="Q19">
-        <v>2.870634398210667</v>
+        <v>0.477312125859</v>
       </c>
       <c r="R19">
-        <v>25.835709583896</v>
+        <v>4.295809132731</v>
       </c>
       <c r="S19">
-        <v>0.0002102250955667484</v>
+        <v>0.0001292241692417333</v>
       </c>
       <c r="T19">
-        <v>0.000315810981691084</v>
+        <v>0.0002642372216931182</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.671782</v>
+        <v>1.3766805</v>
       </c>
       <c r="H20">
-        <v>7.343564</v>
+        <v>2.753361</v>
       </c>
       <c r="I20">
-        <v>0.02222383008437381</v>
+        <v>0.01501098967863444</v>
       </c>
       <c r="J20">
-        <v>0.01844434341481282</v>
+        <v>0.01460775590511139</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>42.0030115</v>
+        <v>33.8141135</v>
       </c>
       <c r="N20">
-        <v>84.006023</v>
+        <v>67.62822700000001</v>
       </c>
       <c r="O20">
-        <v>0.5082121969030551</v>
+        <v>0.8395820055673167</v>
       </c>
       <c r="P20">
-        <v>0.4088471200600853</v>
+        <v>0.7840733132753086</v>
       </c>
       <c r="Q20">
-        <v>154.225901571493</v>
+        <v>46.55123068023676</v>
       </c>
       <c r="R20">
-        <v>616.9036062859719</v>
+        <v>186.204922720947</v>
       </c>
       <c r="S20">
-        <v>0.01129442151077982</v>
+        <v>0.01260295681993819</v>
       </c>
       <c r="T20">
-        <v>0.007540916686545419</v>
+        <v>0.01145355157203765</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.671782</v>
+        <v>1.3766805</v>
       </c>
       <c r="H21">
-        <v>7.343564</v>
+        <v>2.753361</v>
       </c>
       <c r="I21">
-        <v>0.02222383008437381</v>
+        <v>0.01501098967863444</v>
       </c>
       <c r="J21">
-        <v>0.01844434341481282</v>
+        <v>0.01460775590511139</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.259708</v>
       </c>
       <c r="O21">
-        <v>0.001047438969412139</v>
+        <v>0.002149459115662623</v>
       </c>
       <c r="P21">
-        <v>0.001263967321207012</v>
+        <v>0.003011022483911989</v>
       </c>
       <c r="Q21">
-        <v>0.3178637198853333</v>
+        <v>0.119178313098</v>
       </c>
       <c r="R21">
-        <v>1.907182319312</v>
+        <v>0.715069878588</v>
       </c>
       <c r="S21">
-        <v>2.327810567996698E-05</v>
+        <v>3.226550859985834E-05</v>
       </c>
       <c r="T21">
-        <v>2.331304733744315E-05</v>
+        <v>4.398428146978853E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.671782</v>
+        <v>1.3766805</v>
       </c>
       <c r="H22">
-        <v>7.343564</v>
+        <v>2.753361</v>
       </c>
       <c r="I22">
-        <v>0.02222383008437381</v>
+        <v>0.01501098967863444</v>
       </c>
       <c r="J22">
-        <v>0.01844434341481282</v>
+        <v>0.01460775590511139</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.171693666666666</v>
+        <v>2.533859666666667</v>
       </c>
       <c r="N22">
-        <v>15.515081</v>
+        <v>7.601579</v>
       </c>
       <c r="O22">
-        <v>0.06257450849795097</v>
+        <v>0.06291405453424448</v>
       </c>
       <c r="P22">
-        <v>0.07551001651808879</v>
+        <v>0.088131768302221</v>
       </c>
       <c r="Q22">
-        <v>18.98933171478066</v>
+        <v>3.4883151928365</v>
       </c>
       <c r="R22">
-        <v>113.935990288684</v>
+        <v>20.929891157019</v>
       </c>
       <c r="S22">
-        <v>0.001390645244471668</v>
+        <v>0.0009444022232545881</v>
       </c>
       <c r="T22">
-        <v>0.001392732675917818</v>
+        <v>0.001287407358844678</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.671782</v>
+        <v>1.3766805</v>
       </c>
       <c r="H23">
-        <v>7.343564</v>
+        <v>2.753361</v>
       </c>
       <c r="I23">
-        <v>0.02222383008437381</v>
+        <v>0.01501098967863444</v>
       </c>
       <c r="J23">
-        <v>0.01844434341481282</v>
+        <v>0.01460775590511139</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.4721975</v>
+        <v>0.7582734999999999</v>
       </c>
       <c r="N23">
-        <v>0.944395</v>
+        <v>1.516547</v>
       </c>
       <c r="O23">
-        <v>0.005713317218864898</v>
+        <v>0.01882742795840407</v>
       </c>
       <c r="P23">
-        <v>0.004596255865476982</v>
+        <v>0.0175826586586061</v>
       </c>
       <c r="Q23">
-        <v>1.733806280945</v>
+        <v>1.04390034111675</v>
       </c>
       <c r="R23">
-        <v>6.93522512378</v>
+        <v>4.175601364466999</v>
       </c>
       <c r="S23">
-        <v>0.0001269717910901806</v>
+        <v>0.000282618326758837</v>
       </c>
       <c r="T23">
-        <v>8.477492160520517E-05</v>
+        <v>0.0002568431858478113</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.671782</v>
+        <v>1.3766805</v>
       </c>
       <c r="H24">
-        <v>7.343564</v>
+        <v>2.753361</v>
       </c>
       <c r="I24">
-        <v>0.02222383008437381</v>
+        <v>0.01501098967863444</v>
       </c>
       <c r="J24">
-        <v>0.01844434341481282</v>
+        <v>0.01460775590511139</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.43944966666666</v>
+        <v>0.9893793333333333</v>
       </c>
       <c r="N24">
-        <v>79.318349</v>
+        <v>2.968138</v>
       </c>
       <c r="O24">
-        <v>0.3199020813068228</v>
+        <v>0.02456563248203607</v>
       </c>
       <c r="P24">
-        <v>0.3860327795373761</v>
+        <v>0.03441222547381506</v>
       </c>
       <c r="Q24">
-        <v>97.07989537597265</v>
+        <v>1.362059235303</v>
       </c>
       <c r="R24">
-        <v>582.479372255836</v>
+        <v>8.172355411818</v>
       </c>
       <c r="S24">
-        <v>0.007109449498600365</v>
+        <v>0.0003687544556369704</v>
       </c>
       <c r="T24">
-        <v>0.007120121155162091</v>
+        <v>0.0005026853898731467</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.671782</v>
+        <v>1.3766805</v>
       </c>
       <c r="H25">
-        <v>7.343564</v>
+        <v>2.753361</v>
       </c>
       <c r="I25">
-        <v>0.02222383008437381</v>
+        <v>0.01501098967863444</v>
       </c>
       <c r="J25">
-        <v>0.01844434341481282</v>
+        <v>0.01460775590511139</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.475648666666666</v>
+        <v>2.092743</v>
       </c>
       <c r="N25">
-        <v>25.426946</v>
+        <v>6.278229</v>
       </c>
       <c r="O25">
-        <v>0.102550457103894</v>
+        <v>0.05196142034233613</v>
       </c>
       <c r="P25">
-        <v>0.1237498606977658</v>
+        <v>0.0727890118061372</v>
       </c>
       <c r="Q25">
-        <v>31.12073421259067</v>
+        <v>2.8810384796115</v>
       </c>
       <c r="R25">
-        <v>186.724405275544</v>
+        <v>17.286230877669</v>
       </c>
       <c r="S25">
-        <v>0.002279063933751805</v>
+        <v>0.0007799923444459932</v>
       </c>
       <c r="T25">
-        <v>0.002282484928244839</v>
+        <v>0.001063284117038324</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>63.60536699999999</v>
+        <v>1.226999666666667</v>
       </c>
       <c r="H26">
-        <v>190.816101</v>
+        <v>3.680999</v>
       </c>
       <c r="I26">
-        <v>0.3849778850329995</v>
+        <v>0.01337890624006168</v>
       </c>
       <c r="J26">
-        <v>0.4792601652167269</v>
+        <v>0.01952927163527018</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>42.0030115</v>
+        <v>33.8141135</v>
       </c>
       <c r="N26">
-        <v>84.006023</v>
+        <v>67.62822700000001</v>
       </c>
       <c r="O26">
-        <v>0.5082121969030551</v>
+        <v>0.8395820055673167</v>
       </c>
       <c r="P26">
-        <v>0.4088471200600853</v>
+        <v>0.7840733132753086</v>
       </c>
       <c r="Q26">
-        <v>2671.61696156272</v>
+        <v>41.48990599312884</v>
       </c>
       <c r="R26">
-        <v>16029.70176937632</v>
+        <v>248.939435958773</v>
       </c>
       <c r="S26">
-        <v>0.1956504567117124</v>
+        <v>0.01123268893332807</v>
       </c>
       <c r="T26">
-        <v>0.1959441383083795</v>
+        <v>0.01531238071691979</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>63.60536699999999</v>
+        <v>1.226999666666667</v>
       </c>
       <c r="H27">
-        <v>190.816101</v>
+        <v>3.680999</v>
       </c>
       <c r="I27">
-        <v>0.3849778850329995</v>
+        <v>0.01337890624006168</v>
       </c>
       <c r="J27">
-        <v>0.4792601652167269</v>
+        <v>0.01952927163527018</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.259708</v>
       </c>
       <c r="O27">
-        <v>0.001047438969412139</v>
+        <v>0.002149459115662623</v>
       </c>
       <c r="P27">
-        <v>0.001263967321207012</v>
+        <v>0.003011022483911989</v>
       </c>
       <c r="Q27">
-        <v>5.506274217611999</v>
+        <v>0.1062205431435556</v>
       </c>
       <c r="R27">
-        <v>49.55646795850799</v>
+        <v>0.9559848882919999</v>
       </c>
       <c r="S27">
-        <v>0.0004032408391454298</v>
+        <v>2.875741197529612E-05</v>
       </c>
       <c r="T27">
-        <v>0.0006057691871902162</v>
+        <v>5.880307598822317E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>63.60536699999999</v>
+        <v>1.226999666666667</v>
       </c>
       <c r="H28">
-        <v>190.816101</v>
+        <v>3.680999</v>
       </c>
       <c r="I28">
-        <v>0.3849778850329995</v>
+        <v>0.01337890624006168</v>
       </c>
       <c r="J28">
-        <v>0.4792601652167269</v>
+        <v>0.01952927163527018</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.171693666666666</v>
+        <v>2.533859666666667</v>
       </c>
       <c r="N28">
-        <v>15.515081</v>
+        <v>7.601579</v>
       </c>
       <c r="O28">
-        <v>0.06257450849795097</v>
+        <v>0.06291405453424448</v>
       </c>
       <c r="P28">
-        <v>0.07551001651808879</v>
+        <v>0.088131768302221</v>
       </c>
       <c r="Q28">
-        <v>328.947473679909</v>
+        <v>3.109044966380111</v>
       </c>
       <c r="R28">
-        <v>2960.52726311918</v>
+        <v>27.981404697421</v>
       </c>
       <c r="S28">
-        <v>0.02408980193852062</v>
+        <v>0.0008417212367957842</v>
       </c>
       <c r="T28">
-        <v>0.03618894299197701</v>
+        <v>0.001721149242870768</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>63.60536699999999</v>
+        <v>1.226999666666667</v>
       </c>
       <c r="H29">
-        <v>190.816101</v>
+        <v>3.680999</v>
       </c>
       <c r="I29">
-        <v>0.3849778850329995</v>
+        <v>0.01337890624006168</v>
       </c>
       <c r="J29">
-        <v>0.4792601652167269</v>
+        <v>0.01952927163527018</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.4721975</v>
+        <v>0.7582734999999999</v>
       </c>
       <c r="N29">
-        <v>0.944395</v>
+        <v>1.516547</v>
       </c>
       <c r="O29">
-        <v>0.005713317218864898</v>
+        <v>0.01882742795840407</v>
       </c>
       <c r="P29">
-        <v>0.004596255865476982</v>
+        <v>0.0175826586586061</v>
       </c>
       <c r="Q29">
-        <v>30.0342952839825</v>
+        <v>0.9304013317421667</v>
       </c>
       <c r="R29">
-        <v>180.205771703895</v>
+        <v>5.582407990453</v>
       </c>
       <c r="S29">
-        <v>0.002199500779441227</v>
+        <v>0.0002518903933970039</v>
       </c>
       <c r="T29">
-        <v>0.002202802345466849</v>
+        <v>0.0003433765170141539</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>63.60536699999999</v>
+        <v>1.226999666666667</v>
       </c>
       <c r="H30">
-        <v>190.816101</v>
+        <v>3.680999</v>
       </c>
       <c r="I30">
-        <v>0.3849778850329995</v>
+        <v>0.01337890624006168</v>
       </c>
       <c r="J30">
-        <v>0.4792601652167269</v>
+        <v>0.01952927163527018</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.43944966666666</v>
+        <v>0.9893793333333333</v>
       </c>
       <c r="N30">
-        <v>79.318349</v>
+        <v>2.968138</v>
       </c>
       <c r="O30">
-        <v>0.3199020813068228</v>
+        <v>0.02456563248203607</v>
       </c>
       <c r="P30">
-        <v>0.3860327795373761</v>
+        <v>0.03441222547381506</v>
       </c>
       <c r="Q30">
-        <v>1681.690899326361</v>
+        <v>1.213968112206889</v>
       </c>
       <c r="R30">
-        <v>15135.21809393725</v>
+        <v>10.925713009862</v>
       </c>
       <c r="S30">
-        <v>0.1231552266791553</v>
+        <v>0.0003286612937049743</v>
       </c>
       <c r="T30">
-        <v>0.1850101337001551</v>
+        <v>0.0006720456988522984</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>63.60536699999999</v>
+        <v>1.226999666666667</v>
       </c>
       <c r="H31">
-        <v>190.816101</v>
+        <v>3.680999</v>
       </c>
       <c r="I31">
-        <v>0.3849778850329995</v>
+        <v>0.01337890624006168</v>
       </c>
       <c r="J31">
-        <v>0.4792601652167269</v>
+        <v>0.01952927163527018</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.475648666666666</v>
+        <v>2.092743</v>
       </c>
       <c r="N31">
-        <v>25.426946</v>
+        <v>6.278229</v>
       </c>
       <c r="O31">
-        <v>0.102550457103894</v>
+        <v>0.05196142034233613</v>
       </c>
       <c r="P31">
-        <v>0.1237498606977658</v>
+        <v>0.0727890118061372</v>
       </c>
       <c r="Q31">
-        <v>539.0967440063939</v>
+        <v>2.567794963419</v>
       </c>
       <c r="R31">
-        <v>4851.870696057546</v>
+        <v>23.110154670771</v>
       </c>
       <c r="S31">
-        <v>0.03947965808502445</v>
+        <v>0.0006951869708605486</v>
       </c>
       <c r="T31">
-        <v>0.05930837868355815</v>
+        <v>0.001421516383624942</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.2282923333333333</v>
+        <v>0.06975166666666667</v>
       </c>
       <c r="H32">
-        <v>0.684877</v>
+        <v>0.209255</v>
       </c>
       <c r="I32">
-        <v>0.001381762322917109</v>
+        <v>0.0007605552257047901</v>
       </c>
       <c r="J32">
-        <v>0.001720160208981192</v>
+        <v>0.001110187135622276</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>42.0030115</v>
+        <v>33.8141135</v>
       </c>
       <c r="N32">
-        <v>84.006023</v>
+        <v>67.62822700000001</v>
       </c>
       <c r="O32">
-        <v>0.5082121969030551</v>
+        <v>0.8395820055673167</v>
       </c>
       <c r="P32">
-        <v>0.4088471200600853</v>
+        <v>0.7840733132753086</v>
       </c>
       <c r="Q32">
-        <v>9.588965502361832</v>
+        <v>2.358590773480834</v>
       </c>
       <c r="R32">
-        <v>57.533793014171</v>
+        <v>14.151544640885</v>
       </c>
       <c r="S32">
-        <v>0.0007022284657275723</v>
+        <v>0.0006385484817419309</v>
       </c>
       <c r="T32">
-        <v>0.0007032825474839148</v>
+        <v>0.0008704681057829821</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.2282923333333333</v>
+        <v>0.06975166666666667</v>
       </c>
       <c r="H33">
-        <v>0.684877</v>
+        <v>0.209255</v>
       </c>
       <c r="I33">
-        <v>0.001381762322917109</v>
+        <v>0.0007605552257047901</v>
       </c>
       <c r="J33">
-        <v>0.001720160208981192</v>
+        <v>0.001110187135622276</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.259708</v>
       </c>
       <c r="O33">
-        <v>0.001047438969412139</v>
+        <v>0.002149459115662623</v>
       </c>
       <c r="P33">
-        <v>0.001263967321207012</v>
+        <v>0.003011022483911989</v>
       </c>
       <c r="Q33">
-        <v>0.01976311510177777</v>
+        <v>0.006038355282222223</v>
       </c>
       <c r="R33">
-        <v>0.177868035916</v>
+        <v>0.05434519754</v>
       </c>
       <c r="S33">
-        <v>1.447311703488819E-06</v>
+        <v>1.634782362856004E-06</v>
       </c>
       <c r="T33">
-        <v>2.174226291392851E-06</v>
+        <v>3.342798426708521E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.2282923333333333</v>
+        <v>0.06975166666666667</v>
       </c>
       <c r="H34">
-        <v>0.684877</v>
+        <v>0.209255</v>
       </c>
       <c r="I34">
-        <v>0.001381762322917109</v>
+        <v>0.0007605552257047901</v>
       </c>
       <c r="J34">
-        <v>0.001720160208981192</v>
+        <v>0.001110187135622276</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.171693666666666</v>
+        <v>2.533859666666667</v>
       </c>
       <c r="N34">
-        <v>15.515081</v>
+        <v>7.601579</v>
       </c>
       <c r="O34">
-        <v>0.06257450849795097</v>
+        <v>0.06291405453424448</v>
       </c>
       <c r="P34">
-        <v>0.07551001651808879</v>
+        <v>0.088131768302221</v>
       </c>
       <c r="Q34">
-        <v>1.180658014448555</v>
+        <v>0.1767409348494445</v>
       </c>
       <c r="R34">
-        <v>10.625922130037</v>
+        <v>1.590668413645</v>
       </c>
       <c r="S34">
-        <v>8.646309821752508E-05</v>
+        <v>4.784961294629579E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001298893257939289</v>
+        <v>9.78427554087688E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.2282923333333333</v>
+        <v>0.06975166666666667</v>
       </c>
       <c r="H35">
-        <v>0.684877</v>
+        <v>0.209255</v>
       </c>
       <c r="I35">
-        <v>0.001381762322917109</v>
+        <v>0.0007605552257047901</v>
       </c>
       <c r="J35">
-        <v>0.001720160208981192</v>
+        <v>0.001110187135622276</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.4721975</v>
+        <v>0.7582734999999999</v>
       </c>
       <c r="N35">
-        <v>0.944395</v>
+        <v>1.516547</v>
       </c>
       <c r="O35">
-        <v>0.005713317218864898</v>
+        <v>0.01882742795840407</v>
       </c>
       <c r="P35">
-        <v>0.004596255865476982</v>
+        <v>0.0175826586586061</v>
       </c>
       <c r="Q35">
-        <v>0.1077990690691667</v>
+        <v>0.05289084041416667</v>
       </c>
       <c r="R35">
-        <v>0.646794414415</v>
+        <v>0.317345042485</v>
       </c>
       <c r="S35">
-        <v>7.894446471901077E-06</v>
+        <v>1.431929872034469E-05</v>
       </c>
       <c r="T35">
-        <v>7.906296450089915E-06</v>
+        <v>1.952004145282211E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.2282923333333333</v>
+        <v>0.06975166666666667</v>
       </c>
       <c r="H36">
-        <v>0.684877</v>
+        <v>0.209255</v>
       </c>
       <c r="I36">
-        <v>0.001381762322917109</v>
+        <v>0.0007605552257047901</v>
       </c>
       <c r="J36">
-        <v>0.001720160208981192</v>
+        <v>0.001110187135622276</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>26.43944966666666</v>
+        <v>0.9893793333333333</v>
       </c>
       <c r="N36">
-        <v>79.318349</v>
+        <v>2.968138</v>
       </c>
       <c r="O36">
-        <v>0.3199020813068228</v>
+        <v>0.02456563248203607</v>
       </c>
       <c r="P36">
-        <v>0.3860327795373761</v>
+        <v>0.03441222547381506</v>
       </c>
       <c r="Q36">
-        <v>6.035923656452555</v>
+        <v>0.06901085746555556</v>
       </c>
       <c r="R36">
-        <v>54.32331290807299</v>
+        <v>0.62109771719</v>
       </c>
       <c r="S36">
-        <v>0.0004420286429725332</v>
+        <v>1.868352015695587E-05</v>
       </c>
       <c r="T36">
-        <v>0.0006640382267226033</v>
+        <v>3.820401002916265E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.2282923333333333</v>
+        <v>0.06975166666666667</v>
       </c>
       <c r="H37">
-        <v>0.684877</v>
+        <v>0.209255</v>
       </c>
       <c r="I37">
-        <v>0.001381762322917109</v>
+        <v>0.0007605552257047901</v>
       </c>
       <c r="J37">
-        <v>0.001720160208981192</v>
+        <v>0.001110187135622276</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.475648666666666</v>
+        <v>2.092743</v>
       </c>
       <c r="N37">
-        <v>25.426946</v>
+        <v>6.278229</v>
       </c>
       <c r="O37">
-        <v>0.102550457103894</v>
+        <v>0.05196142034233613</v>
       </c>
       <c r="P37">
-        <v>0.1237498606977658</v>
+        <v>0.0727890118061372</v>
       </c>
       <c r="Q37">
-        <v>1.934925610626889</v>
+        <v>0.145972312155</v>
       </c>
       <c r="R37">
-        <v>17.414330495642</v>
+        <v>1.313750809395</v>
       </c>
       <c r="S37">
-        <v>0.0001417003578240879</v>
+        <v>3.951952977640693E-05</v>
       </c>
       <c r="T37">
-        <v>0.0002128695862392621</v>
+        <v>8.080942452183147E-05</v>
       </c>
     </row>
   </sheetData>
